--- a/Document/보스 몬스터 .xlsx
+++ b/Document/보스 몬스터 .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="9555" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t xml:space="preserve">스테이지 1 보스 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,34 @@
   </si>
   <si>
     <t xml:space="preserve">으아 어캐 짜야 될까 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성일자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">초안작성 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,12 +946,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -933,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
